--- a/2022 Alteryx/AoC Runtimes.xlsx
+++ b/2022 Alteryx/AoC Runtimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claire/Documents/Claire/CU Boulder/Alteryx/Advent of Code/Advent-of-Code-solutions/2022 Alteryx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F03B702-5B6F-EE47-9FF3-5D3434CA03DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2708FB8F-342B-F445-91E1-BF4A8BF5E940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{400D04FC-B912-9440-B373-06479121340D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
   <si>
     <t>AoC Runtimes</t>
   </si>
@@ -162,6 +162,24 @@
   </si>
   <si>
     <t>iterative macro, 80,002 iterations</t>
+  </si>
+  <si>
+    <t>0.8 seconds</t>
+  </si>
+  <si>
+    <t>Designer Version</t>
+  </si>
+  <si>
+    <t>0.5 seconds</t>
+  </si>
+  <si>
+    <t>AMP without compatability mode produced the wrong answer</t>
+  </si>
+  <si>
+    <t>2022.3*</t>
+  </si>
+  <si>
+    <t>*switched to a machine with 400mb of available memory… I might wait to upload the remaining times due to drastic differences in machines</t>
   </si>
 </sst>
 </file>
@@ -513,326 +531,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144CA3A5-B422-714A-A01F-9CC9B14BB31A}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>2021.2</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2021.2</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+        <v>2021.2</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>2021.2</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>2021.2</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
+        <v>2021.2</v>
+      </c>
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
       <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
+        <v>2021.2</v>
+      </c>
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>2021.2</v>
+      </c>
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
       <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
+        <v>2021.2</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
+        <v>2021.2</v>
+      </c>
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
+        <v>2021.2</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
       <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
+        <v>2021.2</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
+        <v>2021.2</v>
+      </c>
+      <c r="B15">
         <v>13</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
+        <v>2021.2</v>
+      </c>
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
+        <v>2021.2</v>
+      </c>
+      <c r="B17">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>28</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>2021.2</v>
+      </c>
+      <c r="B18">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
+        <v>2021.2</v>
+      </c>
+      <c r="B19">
         <v>15</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>30</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
